--- a/UC5/Conversao.xlsx
+++ b/UC5/Conversao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Senac\UC-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\senactat\UC5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC03B7C-948B-4B17-BE86-58BDE8B6E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F5895C-E185-4E65-91D4-FCF26EB0D9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BFB8FD5C-BA71-4FB7-AF32-6B87D98C57CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BFB8FD5C-BA71-4FB7-AF32-6B87D98C57CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>10.26.40.12</t>
   </si>
@@ -139,6 +139,39 @@
   </si>
   <si>
     <t>Válido</t>
+  </si>
+  <si>
+    <t>17.7.0.7</t>
+  </si>
+  <si>
+    <t>17.0.0.0</t>
+  </si>
+  <si>
+    <t>177.77.7.7</t>
+  </si>
+  <si>
+    <t>177.77.0.0</t>
+  </si>
+  <si>
+    <t>177.77.255.255</t>
+  </si>
+  <si>
+    <t>221.21.1.1</t>
+  </si>
+  <si>
+    <t>221.21.1.0</t>
+  </si>
+  <si>
+    <t>221.21.1.255</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>/24</t>
   </si>
 </sst>
 </file>
@@ -220,7 +253,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -262,15 +304,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A38072-64ED-416D-89CA-BC743A462CF4}" name="Tabela1" displayName="Tabela1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9C5EED6B-A5B1-4A14-BFDE-9D64356598A9}" name="Coluna1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{19C69042-14A0-4DB4-AEAA-6B2F1ED4BED1}" name="10.26.40.12" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6E1BB6F3-1F90-43BD-80CD-C9E84DB96D86}" name="200.100.10.2" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{16E25D66-4B73-41FA-89F8-62BDF849B9C7}" name="130.44.55.6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E2D436F5-63B6-4B62-A296-6E7500AD1E5C}" name="180.254.255.254" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0BF8C41E-2662-426B-B00E-5897C64811E3}" name="90.0.0.2" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9D765F28-8D9B-48E8-93C1-09CA24D5F3CD}" name="222.22.2.2" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A38072-64ED-416D-89CA-BC743A462CF4}" name="Tabela1" displayName="Tabela1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9C5EED6B-A5B1-4A14-BFDE-9D64356598A9}" name="Coluna1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{19C69042-14A0-4DB4-AEAA-6B2F1ED4BED1}" name="10.26.40.12" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6E1BB6F3-1F90-43BD-80CD-C9E84DB96D86}" name="200.100.10.2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{16E25D66-4B73-41FA-89F8-62BDF849B9C7}" name="130.44.55.6" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E2D436F5-63B6-4B62-A296-6E7500AD1E5C}" name="180.254.255.254" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0BF8C41E-2662-426B-B00E-5897C64811E3}" name="90.0.0.2" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9D765F28-8D9B-48E8-93C1-09CA24D5F3CD}" name="222.22.2.2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{368DEB79-F40F-43FB-8F15-8D510528FE99}" name="17.7.0.7" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{76314ABD-5542-42AE-9668-0393970346DB}" name="177.77.7.7" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5BF3AC2C-9D53-47D8-B3DC-A5EA2DA9F7EB}" name="221.21.1.1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +621,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +632,8 @@
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,9 +658,15 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -637,9 +690,15 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -663,9 +722,15 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -689,9 +754,15 @@
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -715,19 +786,33 @@
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="3">
+        <v>17255255255</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
